--- a/data/VACA PANCHI CAROLINA.xlsx
+++ b/data/VACA PANCHI CAROLINA.xlsx
@@ -58,17 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -776,62 +772,62 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="N7" s="3" t="inlineStr">
         <is>
           <t>0 de 5</t>
         </is>
@@ -1038,19 +1034,19 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="4" t="n">
         <v>12.48</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="4" t="n">
         <v>3.47</v>
       </c>
-      <c r="E7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6" t="n">
+      <c r="E7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="n">
         <v>0</v>
       </c>
     </row>
